--- a/MVC/regles de gestio salle.xlsx
+++ b/MVC/regles de gestio salle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>max</t>
   </si>
@@ -48,25 +48,16 @@
     <t>nocturne</t>
   </si>
   <si>
-    <t>+25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>-10%</t>
-  </si>
-  <si>
-    <t>-20%</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
     <t>PRIX</t>
   </si>
   <si>
     <t>PERSONNES</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>prix/personne</t>
   </si>
 </sst>
 </file>
@@ -74,9 +65,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,24 +124,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,34 +441,38 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -470,161 +483,255 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <f>+B6*1.25</f>
-        <v>500</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:D5" si="0">+C6*1.25</f>
-        <v>630</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
+      <c r="B5" s="11">
+        <f t="shared" ref="B5:E8" si="0">+B$11*$F$2*B$9*$F5</f>
+        <v>293.16374999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>571.36887499999989</v>
+      </c>
+      <c r="D5" s="11">
+        <f>+D$11*$F$2*D$9*$F5</f>
+        <v>841.22499999999991</v>
+      </c>
+      <c r="E5" s="11">
+        <f>+E$11*$F$2*E$9*$F5</f>
+        <v>1121.4224999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <f>+B2*F2</f>
-        <v>400</v>
-      </c>
-      <c r="C6" s="5">
-        <f>+(B2+D2)*F2*1.05</f>
-        <v>504</v>
-      </c>
-      <c r="D6" s="5">
-        <f>+D2*F2*1.1</f>
-        <v>88</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>254.92500000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>496.84249999999997</v>
+      </c>
+      <c r="D6" s="10">
+        <f>+D$11*$F$2*D$9*$F6</f>
+        <v>731.5</v>
+      </c>
+      <c r="E6" s="10">
+        <f>+E$11*$F$2*E$9*$F6</f>
+        <v>975.15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <f>+B6*0.9</f>
-        <v>360</v>
-      </c>
-      <c r="C7" s="5">
-        <f>+C6*0.9</f>
-        <v>453.6</v>
-      </c>
-      <c r="D7" s="5">
-        <f>+D6*0.9</f>
-        <v>79.2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>242.17875000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>472.00037499999996</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>694.92499999999995</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>926.39249999999993</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <f>+B6*0.8</f>
-        <v>320</v>
-      </c>
-      <c r="C8" s="5">
-        <f>+C6*0.8</f>
-        <v>403.20000000000005</v>
-      </c>
-      <c r="D8" s="5">
-        <f>+D6*0.8</f>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>229.4325</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
+        <v>447.15825000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>658.35</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>877.63499999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
+        <f>+B12+F12</f>
+        <v>45</v>
+      </c>
+      <c r="C11" s="10">
+        <f>+B12+2*F12</f>
+        <v>89</v>
+      </c>
+      <c r="D11" s="10">
+        <f>+B12+3*F12</f>
+        <v>133</v>
+      </c>
+      <c r="E11" s="10">
         <f>+B2</f>
-        <v>50</v>
-      </c>
-      <c r="C11" s="4">
-        <f>+B12-1</f>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="D11" s="4">
-        <f>+D12+(B11-D12)/3</f>
-        <v>23.333333333333336</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
-        <f>+B11-(B11-D12)/3</f>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="C12" s="4">
-        <f>+D11+1</f>
-        <v>24.333333333333336</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="10">
         <f>+D2</f>
-        <v>10</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <f>+B11</f>
+        <v>45</v>
+      </c>
+      <c r="D12" s="10">
+        <f>+C11</f>
+        <v>89</v>
+      </c>
+      <c r="E12" s="10">
+        <f>+C11</f>
+        <v>89</v>
+      </c>
+      <c r="F12" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <f>+B5/B$11</f>
+        <v>6.5147500000000003</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:E14" si="1">+C5/C$11</f>
+        <v>6.4198749999999984</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3249999999999993</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2301249999999992</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:D16" si="1">+C11*0.2</f>
-        <v>7.1333333333333329</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+      <c r="B15" s="6">
+        <f t="shared" ref="B15:E17" si="2">+B6/B$11</f>
+        <v>5.665</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5824999999999996</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4174999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="8">
-        <f>+B12*0.2</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="1"/>
-        <v>4.8666666666666671</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="B16" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3817500000000003</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="2"/>
+        <v>5.303375</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
+        <v>5.1466249999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0985000000000005</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0242500000000003</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>4.87575</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
